--- a/results/mp/logistic/corona/confidence/84/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,73 +40,85 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
+    <t>hell</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>lower</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>19</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
   <si>
     <t>of</t>
@@ -118,211 +130,220 @@
     <t>the</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -680,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,16 +791,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -791,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -799,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.839041095890411</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -891,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -899,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -949,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -991,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -999,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1041,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1049,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7567567567567568</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1091,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1099,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
@@ -1149,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7307692307692307</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1167,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8947368421052632</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1191,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1199,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6388888888888888</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6078431372549019</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.8873239436619719</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>343</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>343</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1291,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1299,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1317,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8867924528301887</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1341,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5600000000000001</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1367,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.8839285714285714</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5185185185185185</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,31 +1438,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L16">
+        <v>99</v>
+      </c>
+      <c r="M16">
+        <v>99</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>13</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16">
-        <v>0.8825065274151436</v>
-      </c>
-      <c r="L16">
-        <v>338</v>
-      </c>
-      <c r="M16">
-        <v>338</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5077519379844961</v>
+        <v>0.5484496124031008</v>
       </c>
       <c r="C17">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D17">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1467,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.8620689655172413</v>
+        <v>0.875</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1549,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4406779661016949</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1567,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4363636363636363</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.85625</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L20">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1649,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3066666666666666</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.851063829787234</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2953020134228188</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1717,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.84375</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L22">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2678571428571428</v>
+        <v>0.36</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.8414634146341463</v>
+        <v>0.8515625</v>
       </c>
       <c r="L23">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="M23">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1791,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1799,13 +1820,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2055555555555555</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C24">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.8372093023255814</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1849,37 +1870,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007019185774450164</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E25">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2122</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.7948717948717948</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1891,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1899,37 +1920,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006736842105263158</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>2359</v>
+        <v>104</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1941,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1949,37 +1970,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005162955792191029</v>
+        <v>0.2194444444444444</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3083</v>
+        <v>281</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1991,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1999,37 +2020,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.003103180760279286</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>5140</v>
+        <v>233</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.7727272727272727</v>
+        <v>0.8</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2041,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2049,141 +2070,213 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003011350474866805</v>
+        <v>0.04021447721179625</v>
       </c>
       <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>358</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29">
+        <v>0.8</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29">
+        <v>40</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.009278785322648671</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>0.27</v>
+      </c>
+      <c r="F30">
+        <v>0.73</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2349</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L30">
+        <v>31</v>
+      </c>
+      <c r="M30">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.004832474226804124</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0.17</v>
+      </c>
+      <c r="F31">
+        <v>0.83</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3089</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>13</v>
       </c>
-      <c r="D29">
-        <v>24</v>
-      </c>
-      <c r="E29">
-        <v>0.46</v>
-      </c>
-      <c r="F29">
-        <v>0.54</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>4304</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L29">
-        <v>13</v>
-      </c>
-      <c r="M29">
-        <v>13</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.003697936940443753</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>46</v>
+      </c>
+      <c r="E32">
+        <v>0.59</v>
+      </c>
+      <c r="F32">
+        <v>0.41</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>5119</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <v>15</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="L30">
-        <v>48</v>
-      </c>
-      <c r="M30">
-        <v>48</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31">
-        <v>0.76</v>
-      </c>
-      <c r="L31">
-        <v>38</v>
-      </c>
-      <c r="M31">
-        <v>38</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32">
-        <v>0.7558823529411764</v>
-      </c>
-      <c r="L32">
-        <v>257</v>
-      </c>
-      <c r="M32">
-        <v>257</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K33">
         <v>0.75</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2195,21 +2288,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2221,12 +2314,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K35">
         <v>0.7428571428571429</v>
@@ -2252,16 +2345,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.7254237288135593</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L36">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="M36">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2273,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.7037037037037037</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2299,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.6956521739130435</v>
+        <v>0.7108843537414966</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2322,24 +2415,24 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.6842105263157895</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2351,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2377,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.6820083682008368</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L41">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="M41">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2403,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.6818181818181818</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2429,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.675</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2455,12 +2548,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K44">
         <v>0.6666666666666666</v>
@@ -2486,7 +2579,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K45">
         <v>0.6521739130434783</v>
@@ -2512,16 +2605,16 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.648936170212766</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2533,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.6461538461538462</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2559,21 +2652,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.6404494382022472</v>
+        <v>0.625</v>
       </c>
       <c r="L48">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2585,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.6363636363636364</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2611,21 +2704,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.6142857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2637,12 +2730,12 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K51">
         <v>0.6129032258064516</v>
@@ -2668,16 +2761,16 @@
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.6078431372549019</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2689,21 +2782,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.6071428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2715,21 +2808,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.5833333333333334</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2741,21 +2834,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2767,21 +2860,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.5416666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2793,21 +2886,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2819,12 +2912,12 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K58">
         <v>0.5238095238095238</v>
@@ -2850,7 +2943,7 @@
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K59">
         <v>0.5</v>
@@ -2876,16 +2969,16 @@
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K60">
-        <v>0.4931506849315068</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L60">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2897,21 +2990,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>0.4871794871794872</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L61">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M61">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2923,21 +3016,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.4444444444444444</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2949,21 +3042,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>0.390625</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L63">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2975,21 +3068,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K64">
-        <v>0.288135593220339</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3001,21 +3094,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K65">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3027,21 +3120,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K66">
-        <v>0.015</v>
+        <v>0.21875</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3053,85 +3146,215 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>1182</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K67">
-        <v>0.006749156355455568</v>
+        <v>0.03107861060329068</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N67">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>2649</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K68">
-        <v>0.004613841524573721</v>
+        <v>0.0225</v>
       </c>
       <c r="L68">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N68">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>4962</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K69">
-        <v>0.004380475594493116</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="L69">
         <v>14</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N69">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="O69">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>3182</v>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K70">
+        <v>0.008988764044943821</v>
+      </c>
+      <c r="L70">
+        <v>24</v>
+      </c>
+      <c r="M70">
+        <v>27</v>
+      </c>
+      <c r="N70">
+        <v>0.89</v>
+      </c>
+      <c r="O70">
+        <v>0.11</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K71">
+        <v>0.007392197125256674</v>
+      </c>
+      <c r="L71">
+        <v>18</v>
+      </c>
+      <c r="M71">
+        <v>28</v>
+      </c>
+      <c r="N71">
+        <v>0.64</v>
+      </c>
+      <c r="O71">
+        <v>0.36</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K72">
+        <v>0.005417335473515248</v>
+      </c>
+      <c r="L72">
+        <v>27</v>
+      </c>
+      <c r="M72">
+        <v>39</v>
+      </c>
+      <c r="N72">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O72">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K73">
+        <v>0.005246793626117373</v>
+      </c>
+      <c r="L73">
+        <v>27</v>
+      </c>
+      <c r="M73">
+        <v>46</v>
+      </c>
+      <c r="N73">
+        <v>0.59</v>
+      </c>
+      <c r="O73">
+        <v>0.41</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K74">
+        <v>0.004167631396156518</v>
+      </c>
+      <c r="L74">
+        <v>18</v>
+      </c>
+      <c r="M74">
+        <v>27</v>
+      </c>
+      <c r="N74">
+        <v>0.67</v>
+      </c>
+      <c r="O74">
+        <v>0.33</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>4301</v>
       </c>
     </row>
   </sheetData>
